--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB3D6D53-1CC7-4986-9005-66E02B749DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09826D9E-0783-4133-B7EF-81DFEAF7BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="885" windowWidth="37935" windowHeight="15795" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
   <si>
     <t>Element</t>
   </si>
@@ -271,24 +271,6 @@
     <t>should_include</t>
   </si>
   <si>
-    <t>conf_Encounter</t>
-  </si>
-  <si>
-    <t>conf_Location</t>
-  </si>
-  <si>
-    <t>conf_Organization</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
-  </si>
-  <si>
-    <t>conf_Practitioner</t>
-  </si>
-  <si>
-    <t>conf_PractitionerRole</t>
-  </si>
-  <si>
     <t>conditionalCreate</t>
   </si>
   <si>
@@ -349,258 +331,168 @@
     <t>conf_Bundle</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the  [Security](security.html) page for requirements and recommendations.
+    <t>version</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>doc_Coverage</t>
+  </si>
+  <si>
+    <t>doc_Bundle</t>
+  </si>
+  <si>
+    <t>profile_conf</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/</t>
+  </si>
+  <si>
+    <t>HL7 International - Patient Care Work Group</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>data-source-server</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in Server mode when *reponding" to a Data Consumer (often a Payer)  acting as a Client during a clnical data exchange using either Direct Query or the Task based approach. This includes the following interactions:
+1. Responding to a FHIR RestFul Query for Clinical Data 
+1. Responding to a POST of a  Task resource representing a request for clinical data
+1. Responding to polling of a Task resource
 </t>
   </si>
   <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>Da Vinci Notifications Bundle Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Notifications MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Notifications MessageDefinition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Notifications GraphDefinition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit Notification MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Discharge Notification MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>MessageHeader</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Encounter</t>
-  </si>
-  <si>
-    <t>MessageDefinition</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>Practitioner</t>
-  </si>
-  <si>
-    <t>PractitionerRole</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>conf_MessageHeader</t>
-  </si>
-  <si>
-    <t>conf_GraphDefinition</t>
-  </si>
-  <si>
-    <t>conf_MessageDefinition</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/OperationDefinition/MessageHeader-process-message</t>
-  </si>
-  <si>
-    <t>GraphDefinition</t>
-  </si>
-  <si>
-    <t>conf_Condition</t>
-  </si>
-  <si>
-    <t>Required resource type to carry information regarding admission and discharge event in the Da Vinci Notification message bundle</t>
-  </si>
-  <si>
-    <t>process-message</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-bundle</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/admit-notification-messageheader</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/discharge-notification-messageheader</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>packagepath</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
-    <t>Da Vinci</t>
-  </si>
-  <si>
-    <t>canon</t>
-  </si>
-  <si>
-    <t>publisher</t>
-  </si>
-  <si>
-    <t>publishersystem</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>publishervalue</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|1.0.0</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>4.0.1</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-messagedefinition</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/notifications-graphdefinition</t>
-  </si>
-  <si>
-    <t>!MessageDefinition</t>
-  </si>
-  <si>
-    <t>!GraphDefinition</t>
-  </si>
-  <si>
-    <t>doc_Coverage</t>
-  </si>
-  <si>
-    <t>notification-forwarder</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci Intermediary when forwarding Unsolicited Notifications transacted with the `$process-message` in the client mode.</t>
-  </si>
-  <si>
-    <t>The Da Vinci Notification Intermediary **SHALL**:
-1. Support the notification framework defined in this Guide for the Intermediary forwarding notifications.
-1. Implement the RESTful behavior according to the FHIR specification.
-1. Support json source formats for all Da Vinci Notification interactions.
+    <t>server</t>
+  </si>
+  <si>
+    <t>The  Da Vinci CDex Data Source **SHALL**:
+1. Support at least one of the two FHIR transaction approaches for requesting information as defined in this Guide:
+     1. Direct Query
+     1. Task Based Approachs
+1. Support json source formats for all Da Vinci CDex interactions.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The Da Vinci Notifications Intermediary **SHOULD**:
-1. Support the admission/discharge use case defined in this Guide.
-1. Support xml source formats for all Da Vinci Notification interactions.
-1. Identify the Da Vinci or US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.</t>
-  </si>
-  <si>
-    <t>doc_Bundle</t>
-  </si>
-  <si>
-    <t>The Intermediary SHALL notify the Recipient or Intermediary using the $process-message operation.Forwarding notifications using this framework is a point to point FHIR RESTful transaction.  The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
-1. Create a new message bundle with a new `Bundle.id` and new `MessageHeader.id`
-1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
-1. Update the `MessageHeader.destination.url` elements to reflect the new Recipient/Intermediary.
-1. Add a [US Core Provenance Profile] with `Provenance.target` pointing to MessageHeader and using the guidance provided in [Basic Provenance for HIE Redistribution and Transformation].
-    - `Provenance.agent.type` = "author" set to the Sender
-    - If *no* change to the bundle contents:
-      `Provenance.agent.type` = "transmitter" set to the Intermediary
-    - If changes to the bundle contents:
-       `Provenance.agent.type` = "assembler" set to the Intermediary</t>
-  </si>
-  <si>
-    <t>profile_conf</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>conf_Provenance</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-condition</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-coverage</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/adt-notification-encounter</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Transfer/Discharge Notification Condition Profile</t>
-  </si>
-  <si>
-    <t>Da Vinci Admit/Transfer/Discharge Notification Coverage Profile</t>
-  </si>
-  <si>
-    <t>​Da Vinci Admit/Transfer/Discharge Notification Encounter Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/StructureDefinition/transfer-notification-messageheader</t>
-  </si>
-  <si>
-    <t>Da Vinci Transfer Notification MessageHeader Profile</t>
-  </si>
-  <si>
-    <t>Forwarding notifications using the Da Vinci Unsolicited Notifications framework is a point to point FHIR RESTful transaction. The intermediary **SHALL** always modify the MessageHeader as described below and **MAY** change the other contents of the bundle per agreement between the Intermediary and Sender or Receiver.  When forwarding the notification, the Intermediary **SHALL**:
-1. Create a new message bundle with a new `Bundle.id` and new`MessageHeader.id`
-1. Update the `MessageHeader.sender` to reflect the Intermediary as the new Sender
-1. Replace the resource in the Bundle with the resource referenced by the updated `MessageHeader.sender` element.
-1. Update the `MessageHeader.destination` to reflect the new Recipient/Intermediary.</t>
-  </si>
-  <si>
-    <t>The Provenance resource is required to record changes to the Vinci Notification message bundle when forwarding the notification. The Intermediary **SHALL** add a [US Core Provenance Profile](https://www.hl7.org/fhir/us/core/StructureDefinition-us-core-provenance.html) to the message bundle. The `Provenance.target` references the MessageHeader and following the guidance provided in [Basic Provenance for HIE Redistribution and Transformation](https://www.hl7.org/fhir/us/core/basic-provenance.html#hie-redistribution):
-- `Provenance.agent.type` = "author" set to the Sender
-- If *no* change to the bundle contents:
-      `Provenance.agent.type` = "transmitter" set to the Intermediary
-- If changes to the bundle contents:
-       `Provenance.agent.type` = "assembler" set to the Intermediary</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDex/input/</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDex/output/</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/</t>
-  </si>
-  <si>
-    <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
+The  Da Vinci CDex Data Source  **SHOULD**:
+1. Support xml source formats for all Da Vinci CDex interactions.</t>
+  </si>
+  <si>
+    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/2020Sep/security.html)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Vinci Health Record Exchange (HRex) </t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
+  </si>
+  <si>
+    <t>HRex Task Data Request Profile</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+HRex Coverage Profile</t>
+  </si>
+  <si>
+    <t>Required resource type to carry information regarding reason for requesting Clniical information for prior authorization.</t>
+  </si>
+  <si>
+    <t>Required resource type to request and fetch clinical information from data source</t>
+  </si>
+  <si>
+    <t>Required resource type to fetch Clinical Information from data source</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Required resource type to subscribe to data source</t>
+  </si>
+  <si>
+    <t>conf_Subscription</t>
+  </si>
+  <si>
+    <t>doc_Subscription</t>
+  </si>
+  <si>
+    <t>conf_Task</t>
+  </si>
+  <si>
+    <t>doc_Task</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,18 +553,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF005C00"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF032F62"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -686,7 +566,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -703,27 +583,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -747,11 +612,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1069,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1085,59 +946,59 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1712,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1735,23 +1596,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -1759,15 +1620,15 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>132</v>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1775,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="207.75" customHeight="1">
@@ -1783,7 +1644,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -1791,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1825,13 +1686,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1716,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1870,251 +1742,69 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="B4" s="15"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1"/>
+    <row r="6" spans="1:6" s="1" customFormat="1"/>
     <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1" t="str">
-        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D12)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f>"US Core "&amp;D12&amp;" Profile"</f>
-        <v>US Core Provenance Profile</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1" t="str">
-        <f t="shared" ref="A13:A17" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(D13)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</v>
-      </c>
-      <c r="B13" s="1" t="str">
-        <f t="shared" ref="B13:B17" si="1">"US Core "&amp;D13&amp;" Profile"</f>
-        <v>US Core Location Profile</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</v>
-      </c>
-      <c r="B14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core Organization Profile</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1"/>
     <row r="15" spans="1:6">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core Patient Profile</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core Practitioner Profile</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</v>
-      </c>
-      <c r="B17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>US Core PractitionerRole Profile</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6">
@@ -2159,10 +1849,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2195,55 +1885,55 @@
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="T1" t="s">
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>62</v>
@@ -2252,148 +1942,57 @@
         <v>63</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="285.75" thickTop="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="45.75" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1">
       <c r="A5" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" ht="45">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="45">
-      <c r="A7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="45">
-      <c r="A8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="45">
-      <c r="A9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="45">
-      <c r="A10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="45">
-      <c r="A11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="45">
-      <c r="A12" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="45">
-      <c r="A13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="300">
-      <c r="A14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="36" spans="22:25" ht="18">
       <c r="V36" s="7"/>
@@ -2411,10 +2010,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2426,7 +2025,7 @@
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2443,25 +2042,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="285.75" thickBot="1">
-      <c r="A2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="E4" s="2"/>
+    <row r="3" spans="1:5">
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2471,11 +2053,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2492,476 +2074,203 @@
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q10" s="1" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2973,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2993,13 +2302,41 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="C2" s="2"/>
-      <c r="G2" s="2"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09826D9E-0783-4133-B7EF-81DFEAF7BED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28D500-C634-C14F-AD0A-6EF3BA53DD63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="885" windowWidth="37935" windowHeight="15795" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
   <si>
     <t>Element</t>
   </si>
@@ -433,9 +431,6 @@
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
-  </si>
-  <si>
     <t>HRex Task Data Request Profile</t>
   </si>
   <si>
@@ -486,13 +481,22 @@
   </si>
   <si>
     <t>history-system</t>
+  </si>
+  <si>
+    <t>CDex Task Data Request Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,12 +555,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -588,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -612,7 +610,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -934,9 +931,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -953,7 +950,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -961,7 +958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -969,7 +966,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -977,7 +974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -985,7 +982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -993,7 +990,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -1017,21 +1014,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1063,56 +1060,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1120,7 +1117,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1129,7 +1126,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1137,14 +1134,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1152,27 +1149,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1180,14 +1177,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1196,7 +1193,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1204,20 +1201,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1225,7 +1222,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1233,7 +1230,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1241,25 +1238,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1268,7 +1265,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1277,7 +1274,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1286,7 +1283,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1295,203 +1292,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1503,62 +1500,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1573,17 +1570,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1599,7 +1594,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -1607,7 +1602,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -1615,7 +1610,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +1618,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1631,7 +1626,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1634,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1642,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1668,12 +1663,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1684,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1695,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1715,19 +1710,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1741,27 +1736,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1770,72 +1765,82 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="B4" s="15"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1"/>
-    <row r="6" spans="1:6" s="1" customFormat="1"/>
-    <row r="7" spans="1:6">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1"/>
-    <row r="15" spans="1:6">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
     </row>
   </sheetData>
@@ -1855,23 +1860,23 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="45.75" thickTop="1">
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1956,21 +1961,21 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="30">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="30">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1978,28 +1983,28 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="36" spans="22:25" ht="18">
+    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="39" spans="22:25" ht="18">
+    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y39" s="7"/>
     </row>
   </sheetData>
@@ -2016,16 +2021,16 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -2060,21 +2065,21 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2091,19 +2096,19 @@
         <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2122,7 +2127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2141,7 +2146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2160,7 +2165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2179,7 +2184,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2236,7 +2241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2255,7 +2260,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2284,17 +2289,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2306,33 +2311,33 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2354,34 +2359,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2467,29 +2472,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2499,7 +2504,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2508,7 +2513,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2519,7 +2524,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2535,7 +2540,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2547,7 +2552,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2555,7 +2560,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2565,7 +2570,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2575,12 +2580,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2588,7 +2593,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2599,7 +2604,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2610,7 +2615,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2620,7 +2625,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2629,7 +2634,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2638,21 +2643,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2661,7 +2666,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2669,7 +2674,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2680,7 +2685,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2692,304 +2697,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C28D500-C634-C14F-AD0A-6EF3BA53DD63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F22ABC-F413-40E4-97B0-9DC584C3AADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22485" yWindow="765" windowWidth="28005" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -398,13 +398,6 @@
     <t>0.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in Server mode when *reponding" to a Data Consumer (often a Payer)  acting as a Client during a clnical data exchange using either Direct Query or the Task based approach. This includes the following interactions:
-1. Responding to a FHIR RestFul Query for Clinical Data 
-1. Responding to a POST of a  Task resource representing a request for clinical data
-1. Responding to polling of a Task resource
-</t>
-  </si>
-  <si>
     <t>server</t>
   </si>
   <si>
@@ -491,12 +484,20 @@
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
   </si>
+  <si>
+    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Server* mode when responding to a Data Consumer (often a Payer)  during a clinical data exchange. This includes the following interactions:
+1. Responding to a FHIR RestFul Query for Clinical Data 
+1. Responding to a POST of a  Task resource representing a request for clinical data
+1. Responding to a POST of a  Subscription  resource
+1. Responding to polling of a Task resource
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,9 +932,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
@@ -950,7 +951,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
@@ -958,7 +959,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>88</v>
       </c>
@@ -966,7 +967,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>90</v>
       </c>
@@ -974,7 +975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>91</v>
       </c>
@@ -982,7 +983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>92</v>
       </c>
@@ -990,7 +991,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>94</v>
       </c>
@@ -1014,21 +1015,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1060,56 +1061,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1117,7 +1118,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1126,7 +1127,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1134,14 +1135,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1149,27 +1150,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1177,14 +1178,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1193,7 +1194,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1201,20 +1202,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1222,7 +1223,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1230,7 +1231,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1238,25 +1239,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1265,7 +1266,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1274,7 +1275,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1283,7 +1284,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1292,203 +1293,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:10">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:10">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:10">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:10" s="1" customFormat="1">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:10">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:10" s="1" customFormat="1">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:10" s="1" customFormat="1">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:10" s="1" customFormat="1">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:10" s="1" customFormat="1">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:10" s="1" customFormat="1">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:10" s="1" customFormat="1">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:10" s="1" customFormat="1">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:10" s="1" customFormat="1">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:10" s="1" customFormat="1">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:10" s="1" customFormat="1">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:10" s="1" customFormat="1">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:10" s="1" customFormat="1">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:10" s="1" customFormat="1">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:10" s="1" customFormat="1">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:10" s="1" customFormat="1">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:10" s="1" customFormat="1">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:10" s="1" customFormat="1">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:10" s="1" customFormat="1">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:10" s="1" customFormat="1">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:10" s="1" customFormat="1">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:10" s="1" customFormat="1">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:10" s="1" customFormat="1">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:10" s="1" customFormat="1">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:10" s="1" customFormat="1">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:16" s="1" customFormat="1">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:16" s="1" customFormat="1">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:16" s="1" customFormat="1">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:16" s="1" customFormat="1">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:16" s="1" customFormat="1">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:16" ht="15.75">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1500,62 +1501,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:16" s="1" customFormat="1">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:16" s="1" customFormat="1">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:16" s="1" customFormat="1">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:16" s="1" customFormat="1">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:16" s="1" customFormat="1">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:16" s="1" customFormat="1">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:16" s="1" customFormat="1">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:16" s="1" customFormat="1">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:16" s="1" customFormat="1">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:10" s="1" customFormat="1">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:10" s="1" customFormat="1">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1570,15 +1571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -1610,44 +1613,44 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="105" customHeight="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="207.75" customHeight="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1663,12 +1666,12 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -1690,12 +1693,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
@@ -1710,19 +1713,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1736,27 +1739,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30">
+      <c r="A3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1765,82 +1768,82 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1"/>
+    <row r="6" spans="1:6" s="1" customFormat="1"/>
+    <row r="7" spans="1:6">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="1" customFormat="1"/>
+    <row r="15" spans="1:6">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="11"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="F27" s="1"/>
     </row>
   </sheetData>
@@ -1860,23 +1863,23 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="18" thickBot="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +1956,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="45.75" thickTop="1">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1961,21 +1964,21 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="30">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="30">
       <c r="A4" s="1" t="s">
         <v>82</v>
       </c>
@@ -1983,28 +1986,28 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="22:25" ht="18">
       <c r="V36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="22:25" ht="18">
       <c r="Y39" s="7"/>
     </row>
   </sheetData>
@@ -2021,16 +2024,16 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77.5" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2047,7 +2050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -2065,21 +2068,21 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2096,19 +2099,19 @@
         <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2127,7 +2130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2203,7 +2206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,7 +2244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,13 +2296,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2311,33 +2314,33 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2359,34 +2362,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.1640625" customWidth="1"/>
+    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2472,29 +2475,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18.95" customHeight="1">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2504,7 +2507,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="18.95" customHeight="1">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2513,7 +2516,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="18.95" customHeight="1">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2524,7 +2527,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="18.95" customHeight="1">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2540,7 +2543,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="18.95" customHeight="1">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2552,7 +2555,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="18.95" customHeight="1">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2560,7 +2563,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="18.95" customHeight="1">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2570,7 +2573,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="18.95" customHeight="1">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2580,12 +2583,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="18.95" customHeight="1">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2593,7 +2596,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:28" ht="18.95" customHeight="1">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2604,7 +2607,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:28" ht="18.95" customHeight="1">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2615,7 +2618,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:28" ht="18.95" customHeight="1">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2625,7 +2628,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:28" ht="18.95" customHeight="1">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2634,7 +2637,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:28" ht="18.95" customHeight="1">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2643,21 +2646,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:28" ht="18.95" customHeight="1">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:28" ht="18.95" customHeight="1">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:28" ht="18.95" customHeight="1">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2666,7 +2669,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:28" ht="18.95" customHeight="1">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2674,7 +2677,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:28" ht="18.95" customHeight="1">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2685,7 +2688,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:28" ht="18.95" customHeight="1">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2697,304 +2700,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:28" ht="18.95" customHeight="1">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:28" ht="18.95" customHeight="1">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:28" ht="18.95" customHeight="1">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:28" ht="18.95" customHeight="1">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:27" ht="18.95" customHeight="1">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:27" ht="18.95" customHeight="1">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:27" ht="18.95" customHeight="1">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:27" ht="18.95" customHeight="1">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:27" ht="18.95" customHeight="1">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:27" ht="18.95" customHeight="1">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F22ABC-F413-40E4-97B0-9DC584C3AADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C015E1B3-7187-4605-B895-CBB87D03F853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22485" yWindow="765" windowWidth="28005" windowHeight="15795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -485,12 +485,11 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
   </si>
   <si>
-    <t xml:space="preserve">This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Server* mode when responding to a Data Consumer (often a Payer)  during a clinical data exchange. This includes the following interactions:
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Server* mode when responding to a Data Consumer (often a Payer)  during a clinical data exchange. This includes the following interactions:
 1. Responding to a FHIR RestFul Query for Clinical Data 
 1. Responding to a POST of a  Task resource representing a request for clinical data
 1. Responding to a POST of a  Subscription  resource
-1. Responding to polling of a Task resource
-</t>
+1. Responding to polling of a Task resource</t>
   </si>
 </sst>
 </file>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-CDEX\input\resources-spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C015E1B3-7187-4605-B895-CBB87D03F853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1FBD36-0015-B948-B752-8AB3AC6C5765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4880" yWindow="1200" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="136">
   <si>
     <t>Element</t>
   </si>
@@ -317,9 +317,6 @@
     <t>conf_Coverage</t>
   </si>
   <si>
-    <t xml:space="preserve"> US Core Implementation Guide STU 3</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
@@ -384,12 +381,6 @@
   </si>
   <si>
     <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
   </si>
   <si>
     <t>data-source-server</t>
@@ -418,9 +409,6 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Vinci Health Record Exchange (HRex) </t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
@@ -491,12 +479,30 @@
 1. Responding to a POST of a  Subscription  resource
 1. Responding to polling of a Task resource</t>
   </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,12 +934,12 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -941,61 +947,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B7" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1014,21 +1020,21 @@
       <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
@@ -1060,56 +1066,56 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5"/>
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6"/>
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="D7"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -1117,7 +1123,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -1126,7 +1132,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -1134,14 +1140,14 @@
       <c r="H11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -1149,27 +1155,27 @@
       <c r="H13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1177,14 +1183,14 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1193,7 +1199,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1201,20 +1207,20 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="H22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
@@ -1222,7 +1228,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1230,7 +1236,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -1238,25 +1244,25 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1265,7 +1271,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1274,7 +1280,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1283,7 +1289,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1292,203 +1298,203 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
+    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="3:10">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
+    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
+    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
+    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H41" s="5"/>
       <c r="I41" s="9"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H42" s="5"/>
       <c r="I42" s="9"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H43" s="5"/>
       <c r="I43" s="9"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
+    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
+    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
+    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
+    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
+    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
+    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
+    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
+    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
+    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
+    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
+    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
+    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
     </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
+    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
     </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
+    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
       <c r="J57" s="5"/>
     </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
+    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
     </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
+    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
     </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
+    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
+    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
+    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
+    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
+    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
     </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
+    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
     </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
+    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
     </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
+    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
     </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
+    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
     </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
+    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
     </row>
-    <row r="70" spans="3:16" ht="15.75">
+    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
       <c r="C70" s="10"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -1500,62 +1506,62 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
+    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
     </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
+    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
     </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
+    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
     </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
+    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
     </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
+    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
     </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
+    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
     </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
+    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
     </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
+    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
     </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="H79" s="5"/>
       <c r="I79" s="9"/>
       <c r="J79" s="5"/>
     </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
+    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
     </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
+    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
     </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
+    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
@@ -1570,17 +1576,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,68 +1594,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="1" customFormat="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="207.75" customHeight="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="103.5" customHeight="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1659,47 +1665,57 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.28515625" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1716,15 +1732,15 @@
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1738,27 +1754,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1767,82 +1783,82 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1"/>
-    <row r="6" spans="1:6" s="1" customFormat="1"/>
-    <row r="7" spans="1:6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1"/>
-    <row r="15" spans="1:6">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
     </row>
   </sheetData>
@@ -1862,23 +1878,23 @@
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.42578125" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.42578125" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
+    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
+    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" thickBot="1">
+    <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1892,7 +1908,7 @@
         <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -1955,7 +1971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="45.75" thickTop="1">
+    <row r="2" spans="1:25" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -1963,50 +1979,50 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="30">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="30">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="36" spans="22:25" ht="18">
+    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V36" s="7"/>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
     </row>
-    <row r="39" spans="22:25" ht="18">
+    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="Y39" s="7"/>
     </row>
   </sheetData>
@@ -2023,16 +2039,16 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="77.5" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
     <col min="5" max="5" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2049,7 +2065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -2067,21 +2083,21 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2089,28 +2105,28 @@
         <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -2129,7 +2145,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2148,7 +2164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2167,7 +2183,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,7 +2202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2205,7 +2221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2224,7 +2240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -2243,7 +2259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -2262,7 +2278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2295,13 +2311,13 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -2309,37 +2325,37 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -2361,34 +2377,34 @@
       <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.7109375" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.85546875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.140625" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18.95" customHeight="1" thickBot="1">
+    <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -2474,29 +2490,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="Y2" s="5"/>
       <c r="Z2" s="5"/>
       <c r="AA2" s="12"/>
     </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="12"/>
     </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA4" s="12"/>
     </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z5" s="5"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="18.95" customHeight="1">
+    <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7"/>
       <c r="C7" s="6"/>
       <c r="E7"/>
@@ -2506,7 +2522,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="18.95" customHeight="1">
+    <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8"/>
       <c r="C8"/>
       <c r="E8"/>
@@ -2515,7 +2531,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="18.95" customHeight="1">
+    <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9"/>
       <c r="C9"/>
       <c r="E9"/>
@@ -2526,7 +2542,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:28" ht="18.95" customHeight="1">
+    <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -2542,7 +2558,7 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:28" ht="18.95" customHeight="1">
+    <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11"/>
       <c r="C11"/>
       <c r="E11"/>
@@ -2554,7 +2570,7 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:28" ht="18.95" customHeight="1">
+    <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="C12"/>
       <c r="E12"/>
@@ -2562,7 +2578,7 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:28" ht="18.95" customHeight="1">
+    <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2572,7 +2588,7 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:28" ht="18.95" customHeight="1">
+    <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -2582,12 +2598,12 @@
       <c r="Z14" s="5"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18.95" customHeight="1">
+    <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -2595,7 +2611,7 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="2:28" ht="18.95" customHeight="1">
+    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -2606,7 +2622,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="2:28" ht="18.95" customHeight="1">
+    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -2617,7 +2633,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="2:28" ht="18.95" customHeight="1">
+    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="C19"/>
       <c r="J19"/>
@@ -2627,7 +2643,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="2:28" ht="18.95" customHeight="1">
+    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="C20"/>
       <c r="X20"/>
@@ -2636,7 +2652,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="1"/>
     </row>
-    <row r="21" spans="2:28" ht="18.95" customHeight="1">
+    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -2645,21 +2661,21 @@
       <c r="Z21" s="5"/>
       <c r="AB21" s="1"/>
     </row>
-    <row r="22" spans="2:28" ht="18.95" customHeight="1">
+    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="Z22"/>
       <c r="AB22" s="1"/>
     </row>
-    <row r="23" spans="2:28" ht="18.95" customHeight="1">
+    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="E23"/>
       <c r="J23" s="6"/>
       <c r="Y23"/>
       <c r="AB23" s="1"/>
     </row>
-    <row r="24" spans="2:28" ht="18.95" customHeight="1">
+    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
@@ -2668,7 +2684,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="1"/>
     </row>
-    <row r="25" spans="2:28" ht="18.95" customHeight="1">
+    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
@@ -2676,7 +2692,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="1"/>
     </row>
-    <row r="26" spans="2:28" ht="18.95" customHeight="1">
+    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2687,7 +2703,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="1"/>
     </row>
-    <row r="27" spans="2:28" ht="18.95" customHeight="1">
+    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -2699,304 +2715,304 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="1"/>
     </row>
-    <row r="28" spans="2:28" ht="18.95" customHeight="1">
+    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="C28"/>
       <c r="J28"/>
       <c r="AB28" s="1"/>
     </row>
-    <row r="29" spans="2:28" ht="18.95" customHeight="1">
+    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29"/>
       <c r="J29"/>
       <c r="X29"/>
       <c r="AB29" s="1"/>
     </row>
-    <row r="30" spans="2:28" ht="18.95" customHeight="1">
+    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30"/>
       <c r="J30"/>
       <c r="X30"/>
       <c r="AB30" s="1"/>
     </row>
-    <row r="31" spans="2:28" ht="18.95" customHeight="1">
+    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31"/>
       <c r="J31"/>
       <c r="AB31" s="1"/>
     </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA32" s="2"/>
     </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA33" s="2"/>
     </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA34" s="2"/>
     </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA35" s="12"/>
     </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="12"/>
     </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z37" s="5"/>
       <c r="AA37" s="12"/>
     </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
       <c r="AA38" s="12"/>
     </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA39" s="12"/>
     </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="2"/>
     </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="12"/>
     </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z42" s="5"/>
       <c r="AA42" s="12"/>
     </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="12"/>
     </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="12"/>
     </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA45" s="12"/>
     </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA46" s="12"/>
     </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
       <c r="AA47" s="12"/>
     </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z48" s="5"/>
       <c r="AA48" s="12"/>
     </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y49" s="5"/>
       <c r="Z49" s="5"/>
       <c r="AA49" s="12"/>
     </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
       <c r="AA50" s="12"/>
     </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N51" s="14"/>
       <c r="AA51" s="12"/>
     </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
       <c r="AA52" s="12"/>
     </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z53" s="5"/>
       <c r="AA53" s="12"/>
     </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y55" s="5"/>
       <c r="Z55" s="5"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="Z56" s="12"/>
       <c r="AA56" s="12"/>
     </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA57" s="12"/>
     </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
       <c r="AA58" s="12"/>
     </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V59" s="7"/>
       <c r="Z59" s="12"/>
       <c r="AA59" s="12"/>
     </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N60" s="14"/>
       <c r="AA60" s="12"/>
     </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y61" s="5"/>
       <c r="Z61" s="5"/>
       <c r="AA61" s="12"/>
     </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z62" s="5"/>
       <c r="AA62" s="12"/>
     </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA63" s="12"/>
     </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y64" s="5"/>
       <c r="Z64" s="5"/>
       <c r="AA64" s="12"/>
     </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y65" s="5"/>
       <c r="Z65" s="5"/>
       <c r="AA65" s="12"/>
     </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y66" s="5"/>
       <c r="Z66" s="5"/>
       <c r="AA66" s="12"/>
     </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y67" s="5"/>
       <c r="Z67" s="5"/>
       <c r="AA67" s="12"/>
     </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA68" s="12"/>
     </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z69" s="5"/>
       <c r="AA69" s="12"/>
     </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y70" s="5"/>
       <c r="Z70" s="5"/>
       <c r="AA70" s="12"/>
     </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y71" s="5"/>
       <c r="Z71" s="5"/>
       <c r="AA71" s="12"/>
     </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AA72" s="12"/>
     </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z73" s="5"/>
       <c r="AA73" s="12"/>
     </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y74" s="5"/>
       <c r="Z74" s="5"/>
       <c r="AA74" s="12"/>
     </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z75" s="5"/>
       <c r="AA75" s="12"/>
     </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y76" s="5"/>
       <c r="Z76" s="5"/>
       <c r="AA76" s="12"/>
     </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z77" s="5"/>
       <c r="AA77" s="12"/>
     </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z78" s="5"/>
       <c r="AA78" s="12"/>
     </row>
-    <row r="79" spans="7:27" ht="18.95" customHeight="1">
+    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="Z79" s="7"/>
       <c r="AA79" s="12"/>
     </row>
-    <row r="80" spans="7:27" ht="18.95" customHeight="1">
+    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="Z80" s="7"/>
       <c r="AA80" s="12"/>
     </row>
-    <row r="81" spans="7:27" ht="18.95" customHeight="1">
+    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="Z81" s="7"/>
       <c r="AA81" s="12"/>
     </row>
-    <row r="82" spans="7:27" ht="18.95" customHeight="1">
+    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="Z82" s="7"/>
       <c r="AA82" s="12"/>
     </row>
-    <row r="83" spans="7:27" ht="18.95" customHeight="1">
+    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="12"/>
     </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z84" s="7"/>
       <c r="AA84" s="12"/>
     </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z85" s="7"/>
       <c r="AA85" s="12"/>
     </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z86" s="7"/>
       <c r="AA86" s="12"/>
     </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z87" s="7"/>
       <c r="AA87" s="12"/>
     </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Z88" s="7"/>
       <c r="AA88" s="12"/>
     </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="5"/>
       <c r="Z89" s="7"/>
       <c r="AA89" s="12"/>
     </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="5"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="12"/>
     </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="18.95" customHeight="1">
+    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="5"/>
       <c r="Z91" s="7"/>
       <c r="AA91" s="12"/>
     </row>
-    <row r="92" spans="7:27" ht="18.95" customHeight="1">
+    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="5"/>
       <c r="Z92" s="7"/>
       <c r="AA92" s="12"/>
     </row>
-    <row r="93" spans="7:27" ht="18.95" customHeight="1">
+    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="5"/>
     </row>
   </sheetData>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1FBD36-0015-B948-B752-8AB3AC6C5765}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E7E7FF-B6D8-CD46-AF9A-AA8FE433CDC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1200" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -409,9 +409,6 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/ImplementationGuide/hl7.fhir.us.davinci-cdex|0.2.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide-hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
     <t>HRex Task Data Request Profile</t>
   </si>
   <si>
@@ -496,6 +493,9 @@
   </si>
   <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -961,7 +961,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1623,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1668,7 +1668,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
@@ -1756,25 +1756,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1785,16 +1785,16 @@
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1979,18 +1979,18 @@
         <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2001,18 +2001,18 @@
         <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2114,16 +2114,16 @@
         <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2331,7 +2331,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>26</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>26</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC8B5AD-D502-674A-9CFF-27468C352EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54791B61-69E8-2D40-BDE8-7C233D175D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="-20260" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12460" yWindow="-19960" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
   <si>
     <t>Element</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Coverage</t>
   </si>
   <si>
-    <t>conf_Coverage</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
   </si>
   <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>doc_Coverage</t>
   </si>
   <si>
     <t>doc_Bundle</t>
@@ -401,9 +395,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
     <t>Required resource type to request and fetch clinical information from data source</t>
   </si>
   <si>
@@ -525,13 +516,34 @@
     <t>revinclude_conf</t>
   </si>
   <si>
-    <t>Required resource type to carry information regarding reason for requesting Clniical information Requesting attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/StructureDefinition-hrex-coverage.html</t>
   </si>
   <si>
     <t>HRex Coverage Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
+  </si>
+  <si>
+    <t>PAS Claim</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
+  </si>
+  <si>
+    <t>conf_Claim</t>
+  </si>
+  <si>
+    <t>doc_Claim</t>
+  </si>
+  <si>
+    <t>Resource type to carry information regarding reason for requesting  1) attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
   </si>
 </sst>
 </file>
@@ -1007,64 +1019,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2303,7 +2315,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2325,23 +2337,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2349,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2357,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2365,7 +2377,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2373,34 +2385,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2425,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2428,19 +2440,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -2451,10 +2463,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2484,10 +2496,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2495,13 +2507,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2509,13 +2521,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2531,13 +2543,13 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
@@ -2551,7 +2563,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2562,28 +2574,28 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2594,19 +2606,35 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G7" s="1"/>
@@ -2684,7 +2712,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2717,7 +2745,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -2768,60 +2796,61 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="X1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="65" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2889,7 +2918,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2911,28 +2940,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3134,13 +3163,13 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3148,7 +3177,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3156,7 +3185,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3164,7 +3193,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54791B61-69E8-2D40-BDE8-7C233D175D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465D796-92FE-1E40-AFA8-02DA8E714D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="-19960" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12460" yWindow="-19960" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -395,9 +395,6 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Required resource type to request and fetch clinical information from data source</t>
-  </si>
-  <si>
     <t>Required resource type to fetch Clinical Information from data source</t>
   </si>
   <si>
@@ -544,6 +541,10 @@
   </si>
   <si>
     <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
+  </si>
+  <si>
+    <t>* Required resource type to request and fetch clinical information from data source
+* There **SHOULD** be a reason stated in `Task.statusReason` by the Data-Source-Server when the status is updated to 'failed', 'refused', 'cancelled' or 'held'</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1023,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1031,7 +1032,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,7 +1077,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2361,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2390,29 +2391,29 @@
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2440,16 +2441,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>87</v>
@@ -2463,10 +2464,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2496,7 +2497,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
@@ -2507,13 +2508,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2521,13 +2522,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2542,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2574,7 +2575,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>101</v>
@@ -2589,13 +2590,13 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2606,10 +2607,10 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -2620,19 +2621,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2708,11 +2709,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2796,31 +2797,31 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -2828,7 +2829,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2839,18 +2840,18 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2940,10 +2941,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
@@ -2952,16 +2953,16 @@
         <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3169,7 +3170,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3177,7 +3178,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3185,7 +3186,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3193,7 +3194,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4465D796-92FE-1E40-AFA8-02DA8E714D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09715435-D7B2-F340-BAB8-4E78928E9376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12460" yWindow="-19960" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
   <si>
     <t>Element</t>
   </si>
@@ -447,13 +447,7 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/</t>
   </si>
   <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
@@ -545,6 +539,15 @@
   <si>
     <t>* Required resource type to request and fetch clinical information from data source
 * There **SHOULD** be a reason stated in `Task.statusReason` by the Data-Source-Server when the status is updated to 'failed', 'refused', 'cancelled' or 'held'</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-server.html</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1026,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1032,7 +1035,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1077,7 +1080,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2391,29 +2394,29 @@
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2425,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2C781A-6E7A-BF4B-91B6-0E7EC88583AE}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2434,23 +2437,24 @@
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>87</v>
@@ -2464,10 +2468,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2483,7 +2490,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2497,7 +2504,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
@@ -2514,7 +2521,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2522,13 +2529,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2590,13 +2597,13 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2621,19 +2628,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2709,7 +2716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2797,27 +2804,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -2829,7 +2836,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2941,10 +2948,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09715435-D7B2-F340-BAB8-4E78928E9376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476122B6-7156-C944-A72E-82607AB515B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-900" yWindow="960" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -2429,7 +2429,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2490,7 +2490,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476122B6-7156-C944-A72E-82607AB515B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532F9EC-2F96-5842-A4F1-EDFF61EC9C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-900" yWindow="960" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
   <si>
     <t>Element</t>
   </si>
@@ -369,10 +369,171 @@
     <t>data-source-server</t>
   </si>
   <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
     <t>server</t>
+  </si>
+  <si>
+    <t>HRex Task Data Request Profile</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Required resource type to fetch Clinical Information from data source</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Required resource type to subscribe to data source</t>
+  </si>
+  <si>
+    <t>conf_Subscription</t>
+  </si>
+  <si>
+    <t>doc_Subscription</t>
+  </si>
+  <si>
+    <t>conf_Task</t>
+  </si>
+  <si>
+    <t>doc_Task</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>CDex Task Data Request Profile</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Server* mode when responding to a Data Consumer (often a Payer)  during a clinical data exchange. This includes the following interactions:
+1. Responding to a FHIR RestFul Query for Clinical Data 
+1. Responding to a POST of a  Task resource representing a request for clinical data
+1. Responding to a POST of a  Subscription  resource
+1. Responding to polling of a Task resource</t>
+  </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
+  </si>
+  <si>
+    <t>imports</t>
+  </si>
+  <si>
+    <t>instantiates</t>
+  </si>
+  <si>
+    <t>canonical</t>
+  </si>
+  <si>
+    <t>US Core Server CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-server</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>json,xml</t>
+  </si>
+  <si>
+    <t>format_conf</t>
+  </si>
+  <si>
+    <t>SHALL,SHOULD</t>
+  </si>
+  <si>
+    <t>patchFormat</t>
+  </si>
+  <si>
+    <t>patchFormat_conf</t>
+  </si>
+  <si>
+    <t>suppress_may_sps</t>
+  </si>
+  <si>
+    <t>include_conf</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>revinclude</t>
+  </si>
+  <si>
+    <t>revinclude_conf</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/StructureDefinition-hrex-coverage.html</t>
+  </si>
+  <si>
+    <t>HRex Coverage Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
+  </si>
+  <si>
+    <t>PAS Claim</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
+  </si>
+  <si>
+    <t>conf_Claim</t>
+  </si>
+  <si>
+    <t>doc_Claim</t>
+  </si>
+  <si>
+    <t>Resource type to carry information regarding reason for requesting  1) attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
+  </si>
+  <si>
+    <t>* Required resource type to request and fetch clinical information from data source
+* There **SHOULD** be a reason stated in `Task.statusReason` by the Data-Source-Server when the status is updated to 'failed', 'refused', 'cancelled' or 'held'</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-server.html</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Source **SHALL**:
@@ -380,174 +541,20 @@
      1. Direct Query
      1. Task Based Approachs
 1. Support json source formats for all Da Vinci CDex interactions.
+1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
 The  Da Vinci CDex Data Source  **SHOULD**:
 1. Support xml source formats for all Da Vinci CDex interactions.</t>
   </si>
   <si>
-    <t>1. For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the Da Vinci HRex Implementation Guide section on [Security and Privacy](http://hl7.org/fhir/us/davinci-hrex/2020Sep/security.html)</t>
-  </si>
-  <si>
-    <t>HRex Task Data Request Profile</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Required resource type to fetch Clinical Information from data source</t>
-  </si>
-  <si>
-    <t>Subscription</t>
-  </si>
-  <si>
-    <t>Required resource type to subscribe to data source</t>
-  </si>
-  <si>
-    <t>conf_Subscription</t>
-  </si>
-  <si>
-    <t>doc_Subscription</t>
-  </si>
-  <si>
-    <t>conf_Task</t>
-  </si>
-  <si>
-    <t>doc_Task</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>CDex Task Data Request Profile</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Server* mode when responding to a Data Consumer (often a Payer)  during a clinical data exchange. This includes the following interactions:
-1. Responding to a FHIR RestFul Query for Clinical Data 
-1. Responding to a POST of a  Task resource representing a request for clinical data
-1. Responding to a POST of a  Subscription  resource
-1. Responding to polling of a Task resource</t>
-  </si>
-  <si>
-    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
-  </si>
-  <si>
-    <t>imports</t>
-  </si>
-  <si>
-    <t>instantiates</t>
-  </si>
-  <si>
-    <t>canonical</t>
-  </si>
-  <si>
-    <t>US Core Server CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-server</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>json,xml</t>
-  </si>
-  <si>
-    <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
-  </si>
-  <si>
-    <t>patchFormat</t>
-  </si>
-  <si>
-    <t>patchFormat_conf</t>
-  </si>
-  <si>
-    <t>suppress_may_sps</t>
-  </si>
-  <si>
-    <t>include_conf</t>
-  </si>
-  <si>
-    <t>include</t>
-  </si>
-  <si>
-    <t>revinclude</t>
-  </si>
-  <si>
-    <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/StructureDefinition-hrex-coverage.html</t>
-  </si>
-  <si>
-    <t>HRex Coverage Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
-  </si>
-  <si>
-    <t>PAS Claim</t>
-  </si>
-  <si>
-    <t>Claim</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
-  </si>
-  <si>
-    <t>conf_Claim</t>
-  </si>
-  <si>
-    <t>doc_Claim</t>
-  </si>
-  <si>
-    <t>Resource type to carry information regarding reason for requesting  1) attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
-    <t>* Required resource type to request and fetch clinical information from data source
-* There **SHOULD** be a reason stated in `Task.statusReason` by the Data-Source-Server when the status is updated to 'failed', 'refused', 'cancelled' or 'held'</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-server.html</t>
+    <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
+  </si>
+  <si>
+    <t>Data Source Server CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-source-server</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1033,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1035,7 +1042,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,7 +1087,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2318,8 +2325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2349,7 +2356,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2365,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2373,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2381,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2389,34 +2396,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2426,17 +2433,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2C781A-6E7A-BF4B-91B6-0E7EC88583AE}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
@@ -2445,16 +2452,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>87</v>
@@ -2468,15 +2475,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>154</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2504,7 +2528,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
@@ -2515,13 +2539,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2529,13 +2553,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2550,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2582,28 +2606,28 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2614,33 +2638,33 @@
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2804,39 +2828,39 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="W1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:25" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2847,18 +2871,18 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2948,10 +2972,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>
@@ -2960,16 +2984,16 @@
         <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3177,7 +3201,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3185,7 +3209,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3193,7 +3217,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3201,7 +3225,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E532F9EC-2F96-5842-A4F1-EDFF61EC9C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D7BCE-0876-4445-8076-3A6D7ED1FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3280" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -436,9 +436,6 @@
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/output/</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
@@ -555,6 +552,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-source-server</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
 </sst>
 </file>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1041,8 +1041,8 @@
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
+      <c r="B3" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1087,7 +1087,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2356,7 +2356,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2388,7 +2388,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2396,34 +2396,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2452,16 +2452,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>87</v>
@@ -2475,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>154</v>
-      </c>
       <c r="E2" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2492,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2528,7 +2528,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
@@ -2545,7 +2545,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2556,10 +2556,10 @@
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2574,7 +2574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2621,13 +2621,13 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2652,19 +2652,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2828,27 +2828,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -2860,7 +2860,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2972,10 +2972,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D7BCE-0876-4445-8076-3A6D7ED1FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B818296-1C24-D34E-8E0E-359D476B9FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-CDEX/input/resources-spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B818296-1C24-D34E-8E0E-359D476B9FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE282878-6D6A-7745-A846-9889C725EDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="840" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -430,13 +430,7 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>Da Vinci Health Record Exchange (HRex) 0.2.0 - STU R1 - 2nd ballot</t>
-  </si>
-  <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|0.2.0</t>
   </si>
   <si>
     <t>imports</t>
@@ -522,9 +516,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/index.html</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-server.html</t>
@@ -556,12 +547,21 @@
   <si>
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +639,14 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -666,11 +674,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -697,9 +706,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1014,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1033,7 +1044,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1042,7 +1053,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1087,7 +1098,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2356,7 +2367,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2388,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2396,34 +2407,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2436,7 +2447,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2445,23 +2456,23 @@
     <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="78.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>87</v>
@@ -2475,13 +2486,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2492,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2513,14 +2524,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2528,7 +2540,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
@@ -2545,7 +2557,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2553,19 +2565,23 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{604BCB53-4C44-B241-BABB-AD7AA5C684F8}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{97E660C9-E95D-CA42-8D04-C9599FC0DD33}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2621,13 +2637,13 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2652,19 +2668,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2828,27 +2844,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -2860,7 +2876,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2972,10 +2988,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE282878-6D6A-7745-A846-9889C725EDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4231C44-8ABF-2C41-903A-F4162EFE1677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="840" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="840" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -430,9 +430,6 @@
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
-    <t>/users/ehaas/Documents/FHIR/Davinci-CDEX/input/</t>
-  </si>
-  <si>
     <t>imports</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
   </si>
   <si>
     <t>format_conf</t>
-  </si>
-  <si>
-    <t>SHALL,SHOULD</t>
   </si>
   <si>
     <t>patchFormat</t>
@@ -522,6 +516,34 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
+1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
+  </si>
+  <si>
+    <t>Data Source Server CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-source-server</t>
+  </si>
+  <si>
+    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+  </si>
+  <si>
+    <t>SHALL,MAY</t>
+  </si>
+  <si>
+    <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Source **SHALL**:
@@ -531,30 +553,9 @@
 1. Support json source formats for all Da Vinci CDex interactions.
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The  Da Vinci CDex Data Source  **SHOULD**:
-1. Support xml source formats for all Da Vinci CDex interactions.</t>
-  </si>
-  <si>
-    <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
-1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
-  </si>
-  <si>
-    <t>Data Source Server CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-source-server</t>
-  </si>
-  <si>
-    <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
-  </si>
-  <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
+The  Da Vinci CDex Data Source  **MAY**:
+1. Support XML source formats for all Da Vinci CDex interactions.
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1027,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1045,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1053,7 +1054,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1098,7 +1099,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2336,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2368,7 @@
         <v>78</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2399,7 +2400,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,34 +2408,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2463,16 +2464,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>87</v>
@@ -2486,13 +2487,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2503,13 +2504,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2524,7 +2525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2540,7 +2541,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>87</v>
@@ -2557,7 +2558,7 @@
         <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2565,13 +2566,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2637,13 +2638,13 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -2668,19 +2669,19 @@
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2844,27 +2845,27 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D2" s="10"/>
     </row>
@@ -2876,7 +2877,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2988,10 +2989,10 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>77</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4231C44-8ABF-2C41-903A-F4162EFE1677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F43B80-95DE-AB4E-A513-B8969DF141EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="840" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67180" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">sp_combos!$B$1:$B$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
   <si>
     <t>Element</t>
   </si>
@@ -300,9 +300,6 @@
     <t>referencePolicy_conf</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
     <t>doc</t>
   </si>
   <si>
@@ -372,21 +369,12 @@
     <t>server</t>
   </si>
   <si>
-    <t>HRex Task Data Request Profile</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Required resource type to fetch Clinical Information from data source</t>
-  </si>
-  <si>
     <t>Subscription</t>
   </si>
   <si>
-    <t>Required resource type to subscribe to data source</t>
-  </si>
-  <si>
     <t>conf_Subscription</t>
   </si>
   <si>
@@ -414,19 +402,9 @@
     <t>CDex Task Data Request Profile</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-task-data-request</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-data-request</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source (often an EHR) in *Server* mode when responding to a Data Consumer (often a Payer)  during a clinical data exchange. This includes the following interactions:
-1. Responding to a FHIR RestFul Query for Clinical Data 
-1. Responding to a POST of a  Task resource representing a request for clinical data
-1. Responding to a POST of a  Subscription  resource
-1. Responding to polling of a Task resource</t>
-  </si>
-  <si>
     <t>HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1</t>
   </si>
   <si>
@@ -473,40 +451,6 @@
   </si>
   <si>
     <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/2020Sep/StructureDefinition-hrex-coverage.html</t>
-  </si>
-  <si>
-    <t>HRex Coverage Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition/profile-claim</t>
-  </si>
-  <si>
-    <t>PAS Claim</t>
-  </si>
-  <si>
-    <t>Claim</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-pas/StructureDefinition-profile-claim.html</t>
-  </si>
-  <si>
-    <t>conf_Claim</t>
-  </si>
-  <si>
-    <t>doc_Claim</t>
-  </si>
-  <si>
-    <t>Resource type to carry information regarding reason for requesting  1) attachments to support claim submission, medical necessity and other reasons for attachments between payers and providers, and 2) additional information to support prior authorization requests.</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-hrex/StructureDefinition/hrex-coverage</t>
-  </si>
-  <si>
-    <t>* Required resource type to request and fetch clinical information from data source
-* There **SHOULD** be a reason stated in `Task.statusReason` by the Data-Source-Server when the status is updated to 'failed', 'refused', 'cancelled' or 'held'</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/index.html</t>
@@ -546,25 +490,101 @@
     <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
   </si>
   <si>
-    <t>The  Da Vinci CDex Data Source **SHALL**:
-1. Support at least one of the two FHIR transaction approaches for requesting information as defined in this Guide:
+    <t>The  Da Vinci CDex Data Source Server **SHALL**:
+1. Support at least one of the CDex approaches for exchanging clinical information:
      1. Direct Query
-     1. Task Based Approachs
-1. Support json source formats for all Da Vinci CDex interactions.
+     1. Task-Based Approach
+     1. Attachments 
+1. Support JSON source formats for all Da Vinci CDex interactions.
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
-1. Declare a CapabilityStatement identifying the scenarios, transactions and profiles supported.
-The  Da Vinci CDex Data Source  **MAY**:
+1. Declare a CapabilityStatement identifying the scenarios, transactions, and profiles supported.
+The  Da Vinci CDex Data Source Server **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
-   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON.  Transforms to and from XML will invalidate signatures.</t>
+   &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-task-data-request.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
+  </si>
+  <si>
+    <t>CDex Task Attachment Request Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-task-attachment-request.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
+  </si>
+  <si>
+    <t>CDex Signature Bundle Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-signature-bundle.html</t>
+  </si>
+  <si>
+    <t>CDex Patient Demographics Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> StructureDefinition-cdex-patient-demographics.html</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Required resource type to subscribe to data source for Task-based requests.</t>
+  </si>
+  <si>
+    <t>Required resource type to supply patient demographic data when requesting attachments.</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>Required resource type to fetch provenance along with clinical information</t>
+  </si>
+  <si>
+    <t>!Patient</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
+  </si>
+  <si>
+    <t>conf_Provenance</t>
+  </si>
+  <si>
+    <t>doc_Provenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. **SHALL** support CDex Signature Bundle Profile for signed Bundles.
+</t>
+  </si>
+  <si>
+    <t>Required resource type to request and fetch clinical information from data source using Task-based requests. **SHALL** support *CDex Task Data Request Profile* and/or *CDex Task Attachment Request Profile*.</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source  in *Server* mode when responding to a Data Consumer   during clinical data exchange. The capabilities include one or more of the following interactions:
+1. Responding to a FHIR RestFul Query for Clinical Data 
+1. Responding to a POST of a Task resource representing a request for clinical data
+1. Responding to a POST of a Subscription  resource
+1. Responding to polling of a Task resource</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -648,6 +668,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -677,10 +711,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -689,25 +723,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1042,64 +1079,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
@@ -2337,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2360,23 +2397,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -2384,7 +2421,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2392,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2400,7 +2437,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2408,34 +2445,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2464,19 +2501,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -2487,13 +2524,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2504,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -2541,10 +2578,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -2552,13 +2589,13 @@
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -2566,13 +2603,13 @@
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>52</v>
@@ -2591,8 +2628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2612,7 +2649,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
         <v>9</v>
@@ -2621,67 +2658,74 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>135</v>
+      <c r="E5" s="21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2757,11 +2801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2794,7 +2838,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -2845,64 +2889,75 @@
         <v>73</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="81" thickTop="1" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="65" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:25" ht="80" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
       <c r="V36" s="7"/>
@@ -2965,23 +3020,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15"/>
+      <selection pane="topRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="37.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2989,28 +3043,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3018,18 +3072,18 @@
         <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3037,8 +3091,9 @@
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
@@ -3046,7 +3101,6 @@
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
         <v>52</v>
       </c>
@@ -3058,6 +3112,7 @@
       <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3065,7 +3120,6 @@
       <c r="F4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3077,6 +3131,7 @@
       <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>52</v>
       </c>
@@ -3084,7 +3139,6 @@
       <c r="F5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
         <v>52</v>
       </c>
@@ -3096,16 +3150,16 @@
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3115,6 +3169,7 @@
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3122,7 +3177,6 @@
       <c r="F7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>25</v>
       </c>
@@ -3134,6 +3188,7 @@
       <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3141,7 +3196,6 @@
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3153,6 +3207,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3160,7 +3215,6 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
@@ -3172,6 +3226,7 @@
       <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3179,7 +3234,6 @@
       <c r="F10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
@@ -3212,13 +3266,13 @@
         <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3226,7 +3280,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3234,7 +3288,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3242,7 +3296,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F43B80-95DE-AB4E-A513-B8969DF141EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EA4C3-1E0D-9542-8D2D-F156CFEC2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67180" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="68260" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -76,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
   <si>
     <t>Element</t>
   </si>
@@ -457,9 +462,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-server.html</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
@@ -503,33 +505,21 @@
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-task-data-request.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
   </si>
   <si>
     <t>CDex Task Attachment Request Profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-task-attachment-request.html</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
   </si>
   <si>
     <t>CDex Signature Bundle Profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-signature-bundle.html</t>
-  </si>
-  <si>
     <t>CDex Patient Demographics Profile</t>
   </si>
   <si>
-    <t xml:space="preserve"> StructureDefinition-cdex-patient-demographics.html</t>
-  </si>
-  <si>
     <t>Patient</t>
   </si>
   <si>
@@ -543,12 +533,6 @@
   </si>
   <si>
     <t>Required resource type to fetch provenance along with clinical information</t>
-  </si>
-  <si>
-    <t>!Patient</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
   </si>
   <si>
     <t>conf_Provenance</t>
@@ -561,14 +545,64 @@
 </t>
   </si>
   <si>
-    <t>Required resource type to request and fetch clinical information from data source using Task-based requests. **SHALL** support *CDex Task Data Request Profile* and/or *CDex Task Attachment Request Profile*.</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source  in *Server* mode when responding to a Data Consumer   during clinical data exchange. The capabilities include one or more of the following interactions:
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source in *Server* mode when responding to a Data Consumer during clinical data exchange. The capabilities include one or more of the following interactions:
 1. Responding to a FHIR RestFul Query for Clinical Data 
-1. Responding to a POST of a Task resource representing a request for clinical data
-1. Responding to a POST of a Subscription  resource
-1. Responding to polling of a Task resource</t>
+2. Responding to a Task-based query request for clinical data
+including:
+   -  Polling or Subscription requests for Task update notifications
+1. Responding to a request for Attachments</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-task-data-request.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-task-attachment-request.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-signature-bundle.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-patient-demographics.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-practitionerrole</t>
+  </si>
+  <si>
+    <t>CDex PractitionerRole Profile</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-practitionerrole.html</t>
+  </si>
+  <si>
+    <t>PractitionerRole</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>1. If Da Vinci CDex Data Source Server supports Task-based query, they **SHALL** support the *CDex Task Data Request Profile*.
+2. If Da Vinci CDex Data Source Server supports requesting attachments, they **SHALL** support the: 
+   - *CDex Task Attachment Request Profile*
+   - *CDex Patient Demographic Profile*
+   - *CDex PractitionerRequest Profile*</t>
+  </si>
+  <si>
+    <t>conf_Patient</t>
+  </si>
+  <si>
+    <t>doc_Patient</t>
+  </si>
+  <si>
+    <t>conf_PractitionerRole</t>
+  </si>
+  <si>
+    <t>doc_PractitionerRole</t>
   </si>
 </sst>
 </file>
@@ -714,8 +748,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -727,10 +760,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1061,7 +1093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
@@ -1069,76 +1101,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="1" t="b">
+      <c r="B9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1160,641 +1191,470 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="49.6640625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" customWidth="1"/>
-    <col min="24" max="24" width="50.83203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="90.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="83.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="49.6640625" customWidth="1"/>
+    <col min="21" max="22" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16" customWidth="1"/>
+    <col min="24" max="24" width="50.83203125" customWidth="1"/>
+    <col min="25" max="25" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="90.6640625" customWidth="1"/>
+    <col min="27" max="27" width="83.5" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AA1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AB1" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="12"/>
-    </row>
-    <row r="3" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="12"/>
-    </row>
-    <row r="4" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA4" s="12"/>
-    </row>
-    <row r="5" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="12"/>
-    </row>
-    <row r="6" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="12"/>
+    <row r="2" spans="1:28" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="10"/>
     </row>
     <row r="7" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="C7" s="6"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="10"/>
     </row>
     <row r="8" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="1"/>
+      <c r="AA8" s="10"/>
     </row>
     <row r="9" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="J9"/>
-      <c r="X9"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="1"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="10"/>
     </row>
     <row r="10" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="J10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="1"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="10"/>
     </row>
     <row r="11" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="E11"/>
-      <c r="J11"/>
-      <c r="O11"/>
-      <c r="X11"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="1"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="10"/>
     </row>
     <row r="12" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="E12"/>
-      <c r="J12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="1"/>
+      <c r="AA12" s="10"/>
     </row>
     <row r="13" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="J13"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="1"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="10"/>
     </row>
     <row r="14" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="J14"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="12"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="10"/>
     </row>
     <row r="16" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="E16"/>
-      <c r="J16"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="J17"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="J19"/>
-      <c r="X19"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="X20"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="E22"/>
-      <c r="Z22"/>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23"/>
-      <c r="E23"/>
-      <c r="J23" s="6"/>
-      <c r="Y23"/>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="E24"/>
-      <c r="J24"/>
-      <c r="Y24"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="E25"/>
-      <c r="J25" s="6"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="J26"/>
-      <c r="X26"/>
-      <c r="Y26" s="5"/>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="J27"/>
-      <c r="Q27"/>
-      <c r="X27"/>
-      <c r="Y27" s="5"/>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="J28"/>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29"/>
-      <c r="J29"/>
-      <c r="X29"/>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30"/>
-      <c r="J30"/>
-      <c r="X30"/>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="2:28" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31"/>
-      <c r="J31"/>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="2:28" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA35" s="12"/>
-    </row>
-    <row r="36" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="12"/>
-    </row>
-    <row r="37" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="12"/>
-    </row>
-    <row r="38" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="12"/>
-    </row>
-    <row r="39" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA39" s="12"/>
-    </row>
-    <row r="40" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="12"/>
-    </row>
-    <row r="42" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="12"/>
-    </row>
-    <row r="43" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="12"/>
-    </row>
-    <row r="44" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="12"/>
-    </row>
-    <row r="45" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA45" s="12"/>
-    </row>
-    <row r="46" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA46" s="12"/>
-    </row>
-    <row r="47" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="12"/>
-    </row>
-    <row r="48" spans="25:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="12"/>
-    </row>
-    <row r="49" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="12"/>
-    </row>
-    <row r="50" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="12"/>
-    </row>
-    <row r="51" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N51" s="14"/>
-      <c r="AA51" s="12"/>
-    </row>
-    <row r="52" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="12"/>
-    </row>
-    <row r="53" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="12"/>
-    </row>
-    <row r="54" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA54" s="12"/>
-    </row>
-    <row r="55" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="12"/>
-    </row>
-    <row r="56" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-    </row>
-    <row r="57" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA57" s="12"/>
-    </row>
-    <row r="58" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="12"/>
-    </row>
-    <row r="59" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="V59" s="7"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-    </row>
-    <row r="60" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N60" s="14"/>
-      <c r="AA60" s="12"/>
-    </row>
-    <row r="61" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="12"/>
-    </row>
-    <row r="62" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="12"/>
-    </row>
-    <row r="63" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA63" s="12"/>
-    </row>
-    <row r="64" spans="14:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="12"/>
-    </row>
-    <row r="65" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="12"/>
-    </row>
-    <row r="66" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="12"/>
-    </row>
-    <row r="67" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="12"/>
-    </row>
-    <row r="68" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA68" s="12"/>
-    </row>
-    <row r="69" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="12"/>
-    </row>
-    <row r="70" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="12"/>
-    </row>
-    <row r="71" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="12"/>
-    </row>
-    <row r="72" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AA72" s="12"/>
-    </row>
-    <row r="73" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="12"/>
-    </row>
-    <row r="74" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="12"/>
-    </row>
-    <row r="75" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="12"/>
-    </row>
-    <row r="76" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="12"/>
-    </row>
-    <row r="77" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="12"/>
-    </row>
-    <row r="78" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="12"/>
-    </row>
-    <row r="79" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="Z79" s="7"/>
-      <c r="AA79" s="12"/>
-    </row>
-    <row r="80" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="12"/>
-    </row>
-    <row r="81" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="Z81" s="7"/>
-      <c r="AA81" s="12"/>
-    </row>
-    <row r="82" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="12"/>
-    </row>
-    <row r="83" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="12"/>
-    </row>
-    <row r="84" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="12"/>
-    </row>
-    <row r="85" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="12"/>
-    </row>
-    <row r="86" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="12"/>
-    </row>
-    <row r="87" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="12"/>
-    </row>
-    <row r="88" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="12"/>
-    </row>
-    <row r="89" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="12"/>
-    </row>
-    <row r="90" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="12"/>
-    </row>
-    <row r="91" spans="7:27" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="12"/>
-    </row>
-    <row r="92" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="12"/>
-    </row>
-    <row r="93" spans="7:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Y93" s="5"/>
+      <c r="AA16" s="10"/>
+    </row>
+    <row r="17" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="4"/>
+      <c r="AA17" s="10"/>
+    </row>
+    <row r="18" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="10"/>
+    </row>
+    <row r="19" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="10"/>
+    </row>
+    <row r="20" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="10"/>
+    </row>
+    <row r="21" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+    </row>
+    <row r="23" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA24" s="10"/>
+    </row>
+    <row r="25" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="5"/>
+      <c r="AA25" s="10"/>
+    </row>
+    <row r="26" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="4"/>
+      <c r="AA26" s="10"/>
+    </row>
+    <row r="27" spans="10:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="4"/>
+      <c r="AA27" s="10"/>
+    </row>
+    <row r="35" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA35" s="10"/>
+    </row>
+    <row r="36" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="10"/>
+    </row>
+    <row r="37" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="10"/>
+    </row>
+    <row r="38" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="10"/>
+    </row>
+    <row r="39" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA39" s="10"/>
+    </row>
+    <row r="40" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="10"/>
+    </row>
+    <row r="42" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="10"/>
+    </row>
+    <row r="43" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="10"/>
+    </row>
+    <row r="44" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="10"/>
+    </row>
+    <row r="45" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA45" s="10"/>
+    </row>
+    <row r="46" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA46" s="10"/>
+    </row>
+    <row r="47" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="10"/>
+    </row>
+    <row r="48" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="10"/>
+    </row>
+    <row r="49" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="10"/>
+    </row>
+    <row r="50" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="10"/>
+    </row>
+    <row r="51" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N51" s="12"/>
+      <c r="AA51" s="10"/>
+    </row>
+    <row r="52" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="10"/>
+    </row>
+    <row r="53" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="10"/>
+    </row>
+    <row r="54" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA54" s="10"/>
+    </row>
+    <row r="55" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="10"/>
+    </row>
+    <row r="56" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+    </row>
+    <row r="57" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA57" s="10"/>
+    </row>
+    <row r="58" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="10"/>
+    </row>
+    <row r="59" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V59" s="6"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+    </row>
+    <row r="60" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N60" s="12"/>
+      <c r="AA60" s="10"/>
+    </row>
+    <row r="61" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="10"/>
+    </row>
+    <row r="62" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="10"/>
+    </row>
+    <row r="63" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA63" s="10"/>
+    </row>
+    <row r="64" spans="14:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="10"/>
+    </row>
+    <row r="65" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="10"/>
+    </row>
+    <row r="66" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="10"/>
+    </row>
+    <row r="67" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="10"/>
+    </row>
+    <row r="68" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA68" s="10"/>
+    </row>
+    <row r="69" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="10"/>
+    </row>
+    <row r="70" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="10"/>
+    </row>
+    <row r="71" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="10"/>
+    </row>
+    <row r="72" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA72" s="10"/>
+    </row>
+    <row r="73" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="10"/>
+    </row>
+    <row r="74" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="10"/>
+    </row>
+    <row r="75" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="10"/>
+    </row>
+    <row r="76" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="10"/>
+    </row>
+    <row r="77" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="10"/>
+    </row>
+    <row r="78" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="10"/>
+    </row>
+    <row r="79" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="10"/>
+    </row>
+    <row r="80" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="10"/>
+    </row>
+    <row r="81" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="10"/>
+    </row>
+    <row r="82" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="10"/>
+    </row>
+    <row r="83" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="10"/>
+    </row>
+    <row r="84" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="10"/>
+    </row>
+    <row r="85" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="10"/>
+    </row>
+    <row r="86" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="10"/>
+    </row>
+    <row r="87" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="10"/>
+    </row>
+    <row r="88" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="10"/>
+    </row>
+    <row r="89" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="10"/>
+    </row>
+    <row r="90" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="10"/>
+    </row>
+    <row r="91" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="10"/>
+    </row>
+    <row r="92" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="10"/>
+    </row>
+    <row r="93" spans="25:27" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y93" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB92" xr:uid="{1CF5B17E-E72E-48B2-A597-9C21C12723F0}"/>
@@ -1809,7 +1669,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
@@ -1820,549 +1680,416 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="84.33203125" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" customWidth="1"/>
+    <col min="10" max="10" width="83.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="16" x14ac:dyDescent="0.2">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H41" s="4"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H42" s="4"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="8:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H43" s="4"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="C70" s="9"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="3:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="H79" s="4"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2375,13 +2102,13 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="95.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -2400,28 +2127,28 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>158</v>
+      <c r="B5" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2436,42 +2163,42 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>137</v>
+      <c r="B7" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="17"/>
-    </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2490,66 +2217,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="5" width="78.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="78.5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="b">
+      <c r="B2" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="b">
+      <c r="B3" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>126</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2573,45 +2298,45 @@
     <col min="3" max="3" width="44.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2626,170 +2351,124 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="94" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="C3" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="21" t="s">
+      <c r="E5" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
+      <c r="E6" s="19" t="s">
+        <v>160</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,27 +2480,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C2:C3"/>
+      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" customWidth="1"/>
-    <col min="16" max="19" width="17.5" style="1" customWidth="1"/>
-    <col min="20" max="21" width="20.5" style="1" customWidth="1"/>
-    <col min="22" max="25" width="38.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="20.5" customWidth="1"/>
+    <col min="16" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="25" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -2831,141 +2510,168 @@
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
       <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="65" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:25" ht="118" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="T2" t="s">
+        <v>161</v>
+      </c>
+      <c r="U2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:25" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>156</v>
+      <c r="C3" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>151</v>
+      <c r="C6" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
+      <c r="V36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
     </row>
     <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y39" s="7"/>
+      <c r="Y39" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,7 +2714,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3018,223 +2724,268 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1"/>
+    <col min="3" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L1" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3255,50 +3006,50 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
     </row>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EA4C3-1E0D-9542-8D2D-F156CFEC2000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF98490-4497-4C4A-821A-FA13AACF0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68260" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
   <si>
     <t>Element</t>
   </si>
@@ -603,6 +603,15 @@
   </si>
   <si>
     <t>doc_PractitionerRole</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://hl7.org/fhir/OperationDefinition/Patient-match</t>
+  </si>
+  <si>
+    <t>Used for discovery of the FHIR Patient.id by CDex Data Consumers</t>
   </si>
 </sst>
 </file>
@@ -797,7 +806,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1085,7 +1094,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2481,10 +2490,10 @@
   <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T12" sqref="T12"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2684,7 +2693,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2713,6 +2722,23 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
     </row>
@@ -2727,8 +2753,8 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF98490-4497-4C4A-821A-FA13AACF0FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A70CD-5088-0940-9A41-74D41DF5866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -608,10 +608,10 @@
     <t>match</t>
   </si>
   <si>
-    <t xml:space="preserve"> http://hl7.org/fhir/OperationDefinition/Patient-match</t>
-  </si>
-  <si>
     <t>Used for discovery of the FHIR Patient.id by CDex Data Consumers</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Patient-match</t>
   </si>
 </sst>
 </file>
@@ -2692,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2726,8 +2726,8 @@
       <c r="A2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" t="s">
-        <v>168</v>
+      <c r="B2" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>142</v>
@@ -2736,15 +2736,18 @@
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{4981DBC5-ABB1-074A-826E-126B328F3D7E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2752,7 +2755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8A70CD-5088-0940-9A41-74D41DF5866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C72D1-1654-424D-8968-7C8073610A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45240" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
   <si>
     <t>Element</t>
   </si>
@@ -490,6 +490,113 @@
   </si>
   <si>
     <t>/users/ehaas/Documents/FHIR/Davinci-ecdx/input/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
+  </si>
+  <si>
+    <t>CDex Task Attachment Request Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
+  </si>
+  <si>
+    <t>CDex Signature Bundle Profile</t>
+  </si>
+  <si>
+    <t>CDex Patient Demographics Profile</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Required resource type to subscribe to data source for Task-based requests.</t>
+  </si>
+  <si>
+    <t>Required resource type to supply patient demographic data when requesting attachments.</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>Required resource type to fetch provenance along with clinical information</t>
+  </si>
+  <si>
+    <t>conf_Provenance</t>
+  </si>
+  <si>
+    <t>doc_Provenance</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-task-data-request.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-task-attachment-request.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-signature-bundle.html</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-patient-demographics.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-practitionerrole</t>
+  </si>
+  <si>
+    <t>CDex PractitionerRole Profile</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-practitionerrole.html</t>
+  </si>
+  <si>
+    <t>PractitionerRole</t>
+  </si>
+  <si>
+    <t>logical</t>
+  </si>
+  <si>
+    <t>1. If Da Vinci CDex Data Source Server supports Task-based query, they **SHALL** support the *CDex Task Data Request Profile*.
+2. If Da Vinci CDex Data Source Server supports requesting attachments, they **SHALL** support the: 
+   - *CDex Task Attachment Request Profile*
+   - *CDex Patient Demographic Profile*
+   - *CDex PractitionerRequest Profile*</t>
+  </si>
+  <si>
+    <t>conf_Patient</t>
+  </si>
+  <si>
+    <t>doc_Patient</t>
+  </si>
+  <si>
+    <t>conf_PractitionerRole</t>
+  </si>
+  <si>
+    <t>doc_PractitionerRole</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>Used for discovery of the FHIR Patient.id by CDex Data Consumers</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Patient-match</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source in *Server* mode when responding to a Data Consumer during clinical data exchange. The capabilities include one or more of the following interactions:
+1. Responding to a FHIR RestFul Query for Clinical Data 
+2. Responding to a Task-based query request for clinical data
+including:
+   -  Polling or Subscription requests for Task update notifications
+1. Responding to
+   - Requesting Attachments Using Attachments Codes
+   - Requesting Attachments Using Questionnaires</t>
   </si>
   <si>
     <t>The  Da Vinci CDex Data Source Server **SHALL**:
@@ -500,127 +607,82 @@
 1. Support JSON source formats for all Da Vinci CDex interactions.
 1. Follow the guidelines for [Generating and Verifying Signed Resources](signatures.html) *if signatures are required*.
 1. Declare a CapabilityStatement identifying the scenarios, transactions, and profiles supported.
+    - Follow the guidelines for [Conforming to CDex Task Based Approach](task-based-conformance.html) if supporting this exchange.
+    - Follow the guidelines for [Conforming to CDex Attachments](attachments-conformance.html) if supporting this exchange.
 The  Da Vinci CDex Data Source Server **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-task-attachment-request</t>
-  </si>
-  <si>
-    <t>CDex Task Attachment Request Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-signature-bundle</t>
-  </si>
-  <si>
-    <t>CDex Signature Bundle Profile</t>
-  </si>
-  <si>
-    <t>CDex Patient Demographics Profile</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Required resource type to subscribe to data source for Task-based requests.</t>
-  </si>
-  <si>
-    <t>Required resource type to supply patient demographic data when requesting attachments.</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>Required resource type to fetch provenance along with clinical information</t>
-  </si>
-  <si>
-    <t>conf_Provenance</t>
-  </si>
-  <si>
-    <t>doc_Provenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required resource type to fetch Clinical Information from data source. **SHALL** support CDex Signature Bundle Profile for signed Bundles.
+    <t>Documentation Templates and Rules 1.1.0-ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|1.1.0-ballot</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/2022May/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-sdc-questionnaireresponse</t>
+  </si>
+  <si>
+    <t>CDex SDC QuestionnaireResponse Profile</t>
+  </si>
+  <si>
+    <t>StructureDefinition-cdex-sdc-questionnaireresponse.html</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required resource type for responding to Clinical data requests. **SHALL** support CDex Signature Bundle Profile for signed Bundles.
 </t>
   </si>
   <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>This CapabilityStatement describes the expected capabilities of a Da Vinci CDex Data Source in *Server* mode when responding to a Data Consumer during clinical data exchange. The capabilities include one or more of the following interactions:
-1. Responding to a FHIR RestFul Query for Clinical Data 
-2. Responding to a Task-based query request for clinical data
-including:
-   -  Polling or Subscription requests for Task update notifications
-1. Responding to a request for Attachments</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
-  </si>
-  <si>
-    <t>StructureDefinition-cdex-task-data-request.html</t>
-  </si>
-  <si>
-    <t>StructureDefinition-cdex-task-attachment-request.html</t>
-  </si>
-  <si>
-    <t>StructureDefinition-cdex-signature-bundle.html</t>
-  </si>
-  <si>
-    <t>StructureDefinition-cdex-patient-demographics.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-practitionerrole</t>
-  </si>
-  <si>
-    <t>CDex PractitionerRole Profile</t>
-  </si>
-  <si>
-    <t>StructureDefinition-cdex-practitionerrole.html</t>
-  </si>
-  <si>
-    <t>PractitionerRole</t>
-  </si>
-  <si>
-    <t>logical</t>
-  </si>
-  <si>
-    <t>1. If Da Vinci CDex Data Source Server supports Task-based query, they **SHALL** support the *CDex Task Data Request Profile*.
-2. If Da Vinci CDex Data Source Server supports requesting attachments, they **SHALL** support the: 
-   - *CDex Task Attachment Request Profile*
-   - *CDex Patient Demographic Profile*
-   - *CDex PractitionerRequest Profile*</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
-  </si>
-  <si>
-    <t>doc_Patient</t>
-  </si>
-  <si>
-    <t>conf_PractitionerRole</t>
-  </si>
-  <si>
-    <t>doc_PractitionerRole</t>
-  </si>
-  <si>
-    <t>match</t>
-  </si>
-  <si>
-    <t>Used for discovery of the FHIR Patient.id by CDex Data Consumers</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/OperationDefinition/Patient-match</t>
+    <r>
+      <t xml:space="preserve">Required resource type complete questionnaires from data source. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>**SHALL**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> support CDex SDC QuestionnaireResponse Profile for signed QuestionnaireResponse.</t>
+    </r>
+  </si>
+  <si>
+    <t>conf_QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>doc_QuestionnaireResponse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -725,6 +787,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -754,10 +829,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -765,27 +840,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -2111,7 +2193,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2141,7 +2223,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2152,12 +2234,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="182" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2173,7 +2255,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2294,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2349,10 +2431,25 @@
         <v>52</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{604BCB53-4C44-B241-BABB-AD7AA5C684F8}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{97E660C9-E95D-CA42-8D04-C9599FC0DD33}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{67866BB8-B39F-B149-AE7F-63C2FF0016C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2360,10 +2457,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2400,7 +2497,7 @@
         <v>107</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>52</v>
@@ -2413,13 +2510,13 @@
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>138</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>52</v>
@@ -2430,13 +2527,13 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>52</v>
@@ -2447,36 +2544,53 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2487,13 +2601,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2597,11 +2711,11 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" s="9"/>
       <c r="T2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
@@ -2615,7 +2729,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2626,21 +2740,21 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U5" t="s">
         <v>11</v>
@@ -2648,39 +2762,50 @@
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="U7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="V36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-    </row>
-    <row r="39" spans="22:25" ht="18" x14ac:dyDescent="0.2">
-      <c r="Y39" s="6"/>
+    <row r="8" spans="1:25" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="V35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+    </row>
+    <row r="38" spans="22:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="Y38" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2692,7 +2817,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2724,19 +2849,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2753,24 +2878,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.5" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2781,37 +2908,43 @@
         <v>90</v>
       </c>
       <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>102</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K1" t="s">
         <v>147</v>
       </c>
-      <c r="I1" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" t="s">
         <v>163</v>
       </c>
-      <c r="K1" t="s">
-        <v>164</v>
-      </c>
-      <c r="L1" t="s">
-        <v>165</v>
-      </c>
-      <c r="M1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2825,7 +2958,7 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
         <v>25</v>
@@ -2833,8 +2966,11 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2851,13 +2987,16 @@
         <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2874,13 +3013,16 @@
         <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2897,13 +3039,16 @@
         <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -2911,13 +3056,13 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
         <v>25</v>
@@ -2925,8 +3070,11 @@
       <c r="L6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2948,8 +3096,11 @@
       <c r="L7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="L8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2994,8 +3148,11 @@
       <c r="L9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -3015,6 +3172,9 @@
         <v>25</v>
       </c>
       <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
         <v>25</v>
       </c>
     </row>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C72D1-1654-424D-8968-7C8073610A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B2F252-7A57-DB45-B699-C84403BE2AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45240" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27020" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="184">
   <si>
     <t>Element</t>
   </si>
@@ -422,12 +422,6 @@
     <t>canonical</t>
   </si>
   <si>
-    <t>US Core Server CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-server</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
@@ -456,24 +450,12 @@
   </si>
   <si>
     <t>revinclude_conf</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/index.html</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/CapabilityStatement-us-core-server.html</t>
   </si>
   <si>
     <t>1. For general security consideration refer to the FHIR [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html). 
 1. For security considerations specific to this guide refer to the [Security and Privacy](security.html) section.</t>
   </si>
   <si>
-    <t>Data Source Server CapabilityStatement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-cdex/CapabilityStatement/data-source-server</t>
-  </si>
-  <si>
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
   <si>
@@ -526,9 +508,6 @@
   </si>
   <si>
     <t>doc_Provenance</t>
-  </si>
-  <si>
-    <t>2.0.0</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-patient-demographics</t>
@@ -612,15 +591,6 @@
 The  Da Vinci CDex Data Source Server **MAY**:
 1. Support XML source formats for all Da Vinci CDex interactions.
    &gt; Implementers that choose to support XML need to be aware that JSON Web Signatures can only be created and validated in the original native JSON. Transforms to and from XML will invalidate signatures.</t>
-  </si>
-  <si>
-    <t>Documentation Templates and Rules 1.1.0-ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|1.1.0-ballot</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/2022May/index.html</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-cdex/StructureDefinition/cdex-sdc-questionnaireresponse</t>
@@ -668,12 +638,54 @@
   <si>
     <t>doc_QuestionnaireResponse</t>
   </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|3.1.1</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU3.1.1/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|6.1.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU6.1.0/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU3.1.1/index.html</t>
+  </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 6.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|6.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU6.1.0/index.html</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 2.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.0.1/index.html</t>
+  </si>
+  <si>
+    <t>US Core Version 3.1.1 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>US Core Version 6.1.0 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>2.1.0-preview</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,12 +766,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF005C00"/>
       <name val="Monaco"/>
@@ -830,9 +836,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,16 +862,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -888,9 +890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -928,7 +930,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1034,7 +1036,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1176,7 +1178,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1205,7 +1207,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1213,7 +1215,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1260,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2192,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2225,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2239,7 +2241,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2255,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2263,34 +2265,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="15"/>
+        <v>116</v>
+      </c>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2303,7 +2305,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2335,38 +2337,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>129</v>
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>114</v>
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2376,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2411,46 +2413,55 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>133</v>
+        <v>175</v>
+      </c>
+      <c r="B3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{604BCB53-4C44-B241-BABB-AD7AA5C684F8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{97E660C9-E95D-CA42-8D04-C9599FC0DD33}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{67866BB8-B39F-B149-AE7F-63C2FF0016C0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2473,124 +2484,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="C2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>97</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>141</v>
+      <c r="E5" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>157</v>
+      <c r="E6" s="18" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>175</v>
+        <v>162</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2691,16 +2702,16 @@
         <v>73</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="118" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2711,11 +2722,11 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D2" s="9"/>
       <c r="T2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
@@ -2729,7 +2740,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2740,21 +2751,21 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="T5" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U5" t="s">
         <v>11</v>
@@ -2762,27 +2773,27 @@
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="T7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="U7" t="s">
         <v>11</v>
@@ -2790,13 +2801,13 @@
     </row>
     <row r="8" spans="1:25" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>177</v>
+      <c r="C8" s="20" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2849,19 +2860,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>166</v>
+        <v>157</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2880,7 +2891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
@@ -2908,10 +2919,10 @@
         <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
         <v>99</v>
@@ -2926,22 +2937,22 @@
         <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B2F252-7A57-DB45-B699-C84403BE2AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8CC29-F6D1-DC4D-B350-DFA73F2EE6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27020" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27020" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="187">
   <si>
     <t>Element</t>
   </si>
@@ -679,6 +679,15 @@
   </si>
   <si>
     <t>2.1.0-preview</t>
+  </si>
+  <si>
+    <t>Subscriptions R5 Backport (FHIR IG) Release 1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/subscriptions-backport/ImplementationGuide/hl7.fhir.uv.subscriptions-backport|1.1.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/</t>
   </si>
 </sst>
 </file>
@@ -838,7 +847,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -870,6 +879,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1764,11 +1774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2194,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2378,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2461,6 +2471,20 @@
         <v>52</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2471,7 +2495,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D8CC29-F6D1-DC4D-B350-DFA73F2EE6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25010230-2A2E-DB44-B9FA-70DC2E6836B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27020" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27020" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1774,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2390,8 +2390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25010230-2A2E-DB44-B9FA-70DC2E6836B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFBB6B5-DE51-4747-8E74-7559FF1EE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27020" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60560" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="193">
   <si>
     <t>Element</t>
   </si>
@@ -688,6 +688,24 @@
   </si>
   <si>
     <t>https://hl7.org/fhir/uv/subscriptions-backport/STU1.1/</t>
+  </si>
+  <si>
+    <t>HL7 FHIR® US Core Implementation Guide STU3 Release 7.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|7.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU7.0.0/index.html</t>
+  </si>
+  <si>
+    <t>US Core Version 7.0.0 Client CapabilityStatement</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/CapabilityStatement/us-core-client|7.0.0</t>
+  </si>
+  <si>
+    <t>https://hl7.org/fhir/us/core/STU7.0.0/CapabilityStatement-us-core-client.html</t>
   </si>
 </sst>
 </file>
@@ -847,7 +865,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -879,7 +897,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -2312,10 +2329,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2C781A-6E7A-BF4B-91B6-0E7EC88583AE}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2381,6 +2398,23 @@
         <v>52</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2388,10 +2422,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2445,43 +2479,57 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>125</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>126</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>127</v>
       </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>179</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>180</v>
       </c>
-      <c r="D5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B7" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C7" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D7" t="s">
         <v>52</v>
       </c>
     </row>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFBB6B5-DE51-4747-8E74-7559FF1EE2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A1C2B-2FF2-4642-8517-70C77FA27310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60560" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22800" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -362,12 +362,6 @@
     <t>http://hl7.org/fhir/us/davinci-cdex/</t>
   </si>
   <si>
-    <t>HL7 International - Patient Care Work Group</t>
-  </si>
-  <si>
-    <t>http://www.hl7.org/Special/committees/patientcare/index.cfm</t>
-  </si>
-  <si>
     <t>data-source-server</t>
   </si>
   <si>
@@ -678,9 +672,6 @@
     <t>US Core Version 6.1.0 Client CapabilityStatement</t>
   </si>
   <si>
-    <t>2.1.0-preview</t>
-  </si>
-  <si>
     <t>Subscriptions R5 Backport (FHIR IG) Release 1.1.0</t>
   </si>
   <si>
@@ -706,6 +697,15 @@
   </si>
   <si>
     <t>https://hl7.org/fhir/us/core/STU7.0.0/CapabilityStatement-us-core-client.html</t>
+  </si>
+  <si>
+    <t>HL7 International / Payer/Provider Information Exchange Work Group</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/claims</t>
+  </si>
+  <si>
+    <t>2.1.0</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1234,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
         <v>80</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>93</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,15 +1282,15 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2221,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2244,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2252,7 +2252,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2268,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2276,7 +2276,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="207.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2292,34 +2292,34 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2331,14 +2331,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2C781A-6E7A-BF4B-91B6-0E7EC88583AE}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="78.5" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" customWidth="1"/>
@@ -2346,16 +2346,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" t="s">
         <v>86</v>
@@ -2369,13 +2369,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2386,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2403,13 +2403,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
@@ -2440,7 +2440,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>86</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
         <v>175</v>
-      </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" t="s">
-        <v>177</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" t="s">
         <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2507,13 +2507,13 @@
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" t="s">
-        <v>180</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -2574,49 +2574,49 @@
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>52</v>
@@ -2627,53 +2627,53 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="D7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>163</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2774,31 +2774,31 @@
         <v>73</v>
       </c>
       <c r="V1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="118" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D2" s="9"/>
       <c r="T2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
@@ -2812,32 +2812,32 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="T5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U5" t="s">
         <v>11</v>
@@ -2845,27 +2845,27 @@
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="T7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U7" t="s">
         <v>11</v>
@@ -2873,13 +2873,13 @@
     </row>
     <row r="8" spans="1:25" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>165</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2932,19 +2932,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>159</v>
-      </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2991,40 +2991,40 @@
         <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
-      </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L1" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" t="s">
         <v>153</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>154</v>
-      </c>
-      <c r="N1" t="s">
-        <v>155</v>
-      </c>
-      <c r="O1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -3295,7 +3295,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A1C2B-2FF2-4642-8517-70C77FA27310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F25A3-3085-914A-88A9-FAC5C66E2027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22800" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -453,15 +453,6 @@
     <t>http://build.fhir.org/ig/HL7/davinci-ecdx/package.tgz</t>
   </si>
   <si>
-    <t>Da Vinci Health Record Exchange (HRex) 1.0.0 - STU R1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-hrex/STU1/index.html</t>
-  </si>
-  <si>
     <t>SHALL,MAY</t>
   </si>
   <si>
@@ -654,18 +645,6 @@
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|6.1.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/STU6.1.0/index.html</t>
-  </si>
-  <si>
-    <t>Documentation Templates and Rules 2.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.0.1/index.html</t>
-  </si>
-  <si>
     <t>US Core Version 3.1.1 Client CapabilityStatement</t>
   </si>
   <si>
@@ -687,9 +666,6 @@
     <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|7.0.0</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/STU7.0.0/index.html</t>
-  </si>
-  <si>
     <t>US Core Version 7.0.0 Client CapabilityStatement</t>
   </si>
   <si>
@@ -706,6 +682,30 @@
   </si>
   <si>
     <t>2.1.0</t>
+  </si>
+  <si>
+    <t>Da Vinci Health Record Exchange (HRex) 1.1.0 - STU R1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/ImplementationGuide/hl7.fhir.us.davinci-hrex|1.1.0</t>
+  </si>
+  <si>
+    <t>Documentation Templates and Rules 2.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/ImplementationGuide/hl7.fhir.us.davinci-dtr|2.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-dtr/STU2.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-hrex/STU1.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU6.1/index.html</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/STU7/index.html</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1234,7 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1266,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -2221,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2252,7 +2252,7 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2268,7 +2268,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2308,7 +2308,7 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -2369,13 +2369,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
         <v>52</v>
@@ -2386,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -2403,13 +2403,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
         <v>52</v>
@@ -2424,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2457,7 +2457,7 @@
         <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
         <v>52</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
@@ -2493,13 +2493,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
         <v>52</v>
@@ -2507,13 +2507,13 @@
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
         <v>52</v>
@@ -2521,13 +2521,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
         <v>52</v>
@@ -2580,7 +2580,7 @@
         <v>105</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>52</v>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>52</v>
@@ -2610,13 +2610,13 @@
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>52</v>
@@ -2627,53 +2627,53 @@
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2794,11 +2794,11 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D2" s="9"/>
       <c r="T2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U2" t="s">
         <v>11</v>
@@ -2812,7 +2812,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="32" x14ac:dyDescent="0.2">
@@ -2823,21 +2823,21 @@
         <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="T5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U5" t="s">
         <v>11</v>
@@ -2845,27 +2845,27 @@
     </row>
     <row r="6" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="T7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U7" t="s">
         <v>11</v>
@@ -2873,13 +2873,13 @@
     </row>
     <row r="8" spans="1:25" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="22:25" ht="18" x14ac:dyDescent="0.2">
@@ -2932,19 +2932,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2991,10 +2991,10 @@
         <v>90</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
         <v>97</v>
@@ -3009,22 +3009,22 @@
         <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" t="s">
         <v>151</v>
-      </c>
-      <c r="M1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202F25A3-3085-914A-88A9-FAC5C66E2027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E4A87-91D2-FF43-965D-1A84563FEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64420" yWindow="500" windowWidth="34140" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -712,9 +712,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -862,10 +869,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -873,30 +880,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -1213,10 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FE7B3C-655A-420A-A582-37B1D34DD578}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1250,7 @@
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1294,12 +1303,16 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F2FD596C-3D76-474F-98A3-CA516B70F645}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:AB93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1789,6 +1802,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:J82"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
@@ -2219,10 +2233,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A9" sqref="A9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2329,6 +2344,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2C781A-6E7A-BF4B-91B6-0E7EC88583AE}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2422,9 +2438,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -2540,17 +2557,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="58.5" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
   </cols>
@@ -2632,7 +2650,7 @@
       <c r="B5" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2684,13 +2702,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:Y38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1:Y1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2898,6 +2917,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,6 +2981,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3269,6 +3290,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/input/resources-spreadsheet/data-source-server.xlsx
+++ b/input/resources-spreadsheet/data-source-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/davinci-ecdx/input/resources-spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E4A87-91D2-FF43-965D-1A84563FEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE73394-41FF-DD49-8CFC-4DCBCC94430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64420" yWindow="500" windowWidth="34140" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64420" yWindow="500" windowWidth="34140" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="12" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2441,8 +2441,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
